--- a/500all/speech_level/speeches_CHRG-114hhrg24913.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg24913.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="554">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order. We have an important hearing today. I appreciate all being here. I got to tell you, though, I wish I didn't have to compel you all to be here. We asked you as legislative liaisons to come participate with us and which you refused.    So the Committee on Oversight will come to order. Without objection, the chair is authorized to declare a recess at any time.    We have a couple of goals for the hearing and our investigation, and I need to do our constitutional duty. One, the FBI needs to produce its full investigative file to the United States Congress. And I mean the full file, not just the parts the FBI deemed relevant. Right now, we only have the 302s handpicked by the FBI. We decide what's relevant, not the Department of Justice, not the FBI. We're entitled to the full file.    Two, all unclassified portions of the file should be released to the public as quickly as possible. It has been more than 20 days since, I'm sure, the very first FOIA request was put out there and, by law, that should be out there. I want to commend the FBI for already releasing its investigative summary report and Secretary Clinton's 302 interview summary to the public. We do appreciate that, and it's duly noted. But there are still a number of 302s left for the FBI to release. We were surprised to learn that the 302s, the so-called investigative files provided to the United States Congress, at least to the security officer, were only a portion of them, not all of them.    And three, all Members of Congress should be able to review the entire file right now, unless you're part of the Intel Committee, Oversight Committee, the Judiciary Committee, and the Appropriations Committee, these are--if you're a member, you have to be on those committees in order to view what is currently in the SCIF. It's unclear to me how the FBI can prevent a Member of Congress from seeing what we're already allowed to see by law, yet here they have done so. Even the unclassified information. That's what's mystifying to me. Even unclassified information you're preventing Members of Congress from seeing.    But we do believe we should be able to see the file and the whole file, and it's disappointing that we are here today. We have a number of questions about the redactions, the classifications. I thought a number of those things would just be entered in a briefing. You know, Elijah Cummings, my--the ranking member here, has made a point on several occasions that rather than just going right into a hearing, let's go to a briefing.    We had legitimate questions. We did have this planned for last week. We did have more than 12 Members of the Congress show up to have that briefing, and none of you showed up. That's inexcusable. You're the congressional affairs officers. It's your job to talk to Congress. And for some of you, I had to threaten to send a subpoena just to get you to appear today.    We did some--did some math. We've got seven of you sitting here. Between your compensation and your benefits package, you make more than $1 million from taxpayers. The taxpayers are paying you seven more than $1 million, and you won't even come talk to Congress. What do you do all day if you don't talk to Congress? That's your job.    So we're going to do that today. And the irony here is we're trying to protect the classified information. I didn't create this mess. Hillary Clinton created this mess. There are years of Federal records. Some of it so classified, none of us in this room should probably see them. Most of it's unclassified. But we have a duty and an obligation to protect that information.    I believe that's probably the same goal that you have, but we're going to have to have a reality check here. She's the one that took the records from the State Department, gave access to people who don't have security clearances. The case is closed. There's no consequences, nobody being held accountable. But we also had an FBI director come and testify that he never looked at her testimony under oath, and somehow we have a classified system and we have a nonclassified system, and somehow information was going from the classified system into a nonclassified system.    So it's ironic that you don't want to appear before this committee out of a concern for protecting classified information when Hillary Clinton walked around with a Blackberry full of classified information and gave access to sensitive Federal records to folks without security clearances at all.    I want to understand from each of you what it is you think that Congress should not see. See, I believe passionately in the role of Congress. I believe passionately in the Oversight and Government Reform Committee. We were founded in 1814. Every expenditure, everything we do in this Congress--or everything we do in this Nation is supposed to be overseen by us. We can investigate anything at any time. That's what's different about the United States of America. We're different because we are self-critical, we do go look under the hood, we do hold people accountable. That's why when Abraham Lincoln joined the United States Congress, he was on this committee, and he peppered the President because he didn't believe that the Mexican-American War started as the President said it was. And there has been a rich history of that throughout generations.    We can't do that when each of the agencies that you all represent decide that, well, we're just going to show you the relevant information. We're not even going to answer your questions. You can't see those documents. That's the way a banana republic acts. It's not the way the United States of America acts. So we expect better and we expect you to be responsive, and I don't expect to have to issue a subpoena to see unclassified information.    While we can't be certain what is under each of the redactions within the documents, as far as we can tell, the redactions are covering information commonly given to Congress, such as names of key fact witnesses, titles and positions of government employees at the State Department, and Gmail accounts. There's nothing classified about that information.    While I understand there's an argument to withhold information under the Privacy Act or the Freedom of Information Act, neither of those apply to Congress or any other committees. As I understand it, the FBI is not withholding any information based on the Privacy Act. Instead, they just don't want to give us the information. So there's really no legal basis for these redactions.    The FBI also chose to redact any information in the report classified above secret. This also makes no sense. As a Member of Congress, we routinely receive documents and briefings from the intelligence community at the highest levels of classification, with the exception of sources, methods, with the exception of the SAP material. So any redactions have to be based on classification, have to be removed. We have to be able to see that information.    We also have questions on what the FBI file contains. Oddly enough, the copies of the file provided to us by the FBI are different. We are very grateful that they provided the first set on a Tuesday. I believe it was August 16th. The next day we got a second set. The problem is the second set had 27 emails more than the other one, which we are grateful for. It was an improving file. Only to have the FBI try to come back and recover those, not because it was SAP material, because it's embarrassing. That's why. It was embarrassing. But we should have had it in the first round. We should have had it at the very beginning.    I also want to put this request in context because it's far from the first time Congress or even this committee has requested an investigative file from the FBI or the Department of Justice. Congressional committees are routinely provided investigative materials by the Department of Justice and the     I ask unanimous consent to enter into the record the 2007 CRS report.</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman.    To the witnesses, I hope that as you listened to the chairman, if you think that the cases that he has cited, previous cases involving, for example, the U.S. attorneys are distinguishable from what's happening here today, I'd just like to know. I think he makes a very good point. Other than the fact that in, I guess in some of those cases, at least, the Justice Department was accused of doing something wrong, but I would like to know exactly where you all stand on that, because I think he makes a very good point.    Well, here we are again, another day in the Oversight Committee, another emergency hearing about Hillary Clinton. Today is the second hearing about Secretary Clinton we have held in three business days, and tomorrow we will have a third.    For the record, Mr. Chairman, I want to thank you. And I want the American public to know that you have agreed to schedule a hearing on EpiPen, which affects so many of our constituents because that too is an emergency situation for the constituents of every member who sits here in this chamber right now.    As far as I can tell, the only emergency is that the election is less than 2 months away. The real reason for today's hearing is that FBI Director James Comey refused to be summoned before this committee yet again. He refused. Director Comey has already bent over backwards, departed from longstanding law enforcement precedent, and provided our committee with an unmatched level of transparency about his internal decisionmaking regarding this investigation.    First, he announced the results of his investigation publicly. Normally, the FBI does not discuss its internal decisionmaking, but Director Comey did so in this case.    Second, he agreed to testify in an emergency hearing before our committee 48 hours after his announcement. This is the FBI director. He sat right there in the witness chair and he testified about the evidence they obtained, the law they applied, and the decisionmaking process they employed. He described how, quote, ``an all-star team,'' unquote, of career FBI investigators came to the unanimous conclusion and how it wasn't even close.    But the Republicans did not like the answers Director Comey gave, so they demanded copies of the FBI's internal investigative files. Again, in sharp break from past precedent, the FBI director agreed to share documents from the investigation in an effort to put this question to rest.    But again, that was not enough for the Republicans, so they demanded the public release of these documents. Yet again, Director Comey broke from precedent. He released the FBI's internal investigative memo and the notes from their interview with Secretary Clinton.    Let me state the obvious here. No matter what Director Comey does, it will never be enough for the Republicans. They are demanding that he bring criminal charges against Secretary Clinton, despite the fact that the evidence simply is not there. And that is something nobody, with integrity, would ever do.    We sat here and we listened to Director Comey. Stated there were two things that matter most to him in his life. He said his family and his reputation.    Last week, the Republicans wanted Director Comey to come up here one more time. But this time he said: Enough is enough. He spoke with Chairman Chaffetz personally and he told him enough is enough. In response, the chairman rushed to call today's emergency hearing. He dashed out letters as late as Thursday night, threatening even more subpoenas.    The problem is that he invited the wrong people. The witnesses here today are the legislative affairs staffers from the FBI and other agencies. They did not make the decisions the chairman is upset about. Those decisions were made by none other than Director Comey.    If the chairman has a problem with Director Comey, he should take it up with him, not beat up on legislative affairs staffers because the FBI director wants no part of any partisan charade. The FBI's legislative affairs staffer has been in his job for just a few weeks, Mr. Herring, and is currently serving in an acting capacity. He has been very responsive with our committee, and it makes no sense to hammer him just because he's following the directives of his boss, Director Comey.    The whole hearing is a bait and switch. I have the invitation letters right here. And the chairman says that this hearing will be held in a classified session. I ask unanimous consent to put them in the record, your letters about this hearing.</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Soule</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Soule. Soule.</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. I'm not sure who has an opening statement and who doesn't. We haven't been submitted anything.    Mr. Kadzik, do you have any opening comments?</t>
   </si>
   <si>
-    <t>Kadzik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kadzik. No, I do not have an opening statement, Mr. Chairman, but I would note for the record that I was not compelled to be here today. I came here voluntarily.</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. And Mr. Kadzik was not one of those people. Let's be clear here.    Yes, Ms. Frifield.</t>
   </si>
   <si>
-    <t>Frifield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frifield. I don't have a formal opening statement, but I did want to clarify, sir, that I did not refuse to come up. We asked clarifications on what exactly you were looking for because it seemed uncertain to us what you asked the State Department about these documents that were produced by the FBI. So we--I'm happy to be here and try to answer your questions as best I can.</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t xml:space="preserve">    Mr. Herring. Better.    Thank you, Mr. Chairman, Mr. Cummings, members of the committee for the opportunity to discuss our production of documents in this highly unusual case with intense public interest. I am Special Agent Jason Herring, the Acting Assistant Director for the FBI's Office of Congressional Affairs.    In early July, Director Comey appeared before this committee and answered questions for almost 5 hours to explain the FBI's investigation and conclusions regarding the email matter. At that hearing, and at every opportunity since then, Director Comey has promised that the FBI would be as transparent and forthcoming in this investigation as we could responsibly be.    To that end, on August the 16, the FBI provided to our congressional oversight committees a number of investigative documents to the investigation. It included an investigative summary of the factual information uncovered during the course of our investigation, the relevant FBI interview reports, sometimes known as 302s, and the emails that were determined to contain classified information.    We produced these documents to satisfy the committee's immediate oversight interest in the FBI's conduct in this investigation. This was an unprecedented production and one made with extraordinary speed. We did this because we believe it's important for oversight committees to understand how the FBI reached our conclusion in light of intense public interest in this case.    I am not here today to discuss the merits of the investigation, but rather to discuss and answer process-related questions with the production of our investigative case materials to this committee and our other oversight committees. From my conversations with committee staff late last week, I believe I have an understanding of some of the committee's questions and would like to address those issues head on and up front as best I can.    In order to do that, I do need to be in a closed classified setting. I'll reserve the remainder of my opening remarks for when we go to the closed classified setting. Thank you.    Chairman Chaffetz. Thank you.    Ms. Walsh.</t>
   </si>
   <si>
-    <t>Walsh</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Walsh. Thank you, Mr. Chairman. I'll--I have a brief opening statement on behalf of my intelligence community colleagues in the interest of brevity.    Mr. Chairman, Ranking Member Cummings, and members of the committee, my name is Deirdre Walsh, and I serve as Director of Legislative Affairs for the Director of National Intelligence, James Clapper. I'm here in response to the committee's request to answer questions about the recent document production by the FBI to Congress related to former Secretary of State Clinton's email.    While I understand the Intelligence Community Inspector General, or ICIG as we refer to him, may have interacted with the inner agency with regard to these documents, by statute, the ICIG maintains its own interactions with the Congress separate from my office. Accordingly, I cannot speak on behalf of the ICIG.    With regard to the documents produced by the FBI and the subject of this hearing, ODNI was not involved with this document production. I will, however, do my best to answer any of the questions that you may have.    Additionally, I'm joined by my colleagues from the Central Intelligence Agency, the National Geospatial-Intelligence Agency, and the National Security Agency in response to the committee's request. Given the classification of the underlying material, we look forward to discussing sensitive matters in the closed portion of the hearing. Thank you for the opportunity.</t>
   </si>
   <si>
@@ -271,9 +253,6 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Agent Herring, did the FBI interview the sender of all emails that contained classified information?</t>
   </si>
   <si>
@@ -370,9 +349,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Well, thank you, Mr. Chairman. And I'm going to reserve my questions to the closed session, but I would like to clear up some misconceptions.    I would say that the campaign season is upon us, and the accusations and the charges and the attacks are almost out of control. I just spent--I won't get into it, but anyway.    For several weeks the chairman has been appearing on national television saying that the reason that he cannot see these emails is because the FBI produced to Congress is because they are such a highly sensitive, classified, high level. And for example, he stated that these materials were--and I would like to put his quote in the record--``so secure and sensitive that even I, as the chairman of the Oversight Committee, did not have the proper clearance to see it.''    But in fact, as I understand it, Mr. Herring, Chairman Chaffetz has not been able to view these documents. The reason he hasn't been able to see them is because the Republican chairman of the Intelligence Committee has not allowed him to do so. The documents were produced and given to the Intelligence Committee, and the Intelligence Committee has a process by which they release the documents to people, and he has the same clearance as any other Member of Congress who's not on the Intelligence Committee. And so the reason he hasn't been able to get them is because his own party's leadership has not voted to give him this clearance.    Now, a--as I understand it, the FBI produced a small subset of these emails only to the Intelligence Committee. And according to House rules, the Intelligence Committee has the jurisdiction over certain agencies, and these agencies report to the Intelligence Committee.    So it has a process in place. And for any member who's not on the Intelligence Committee, to see these documents, and they need to send a letter to the committee, which Chairman Chaffetz did, and I have his letter from September 2, and I request unanimous consent to place it into the record.</t>
   </si>
   <si>
@@ -388,9 +364,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Any one of the four people from the Intelligence community here can help answer this. Have you made redactions on personal identifiable information to the Intel Committee?    Mr. Higgins, how about you?</t>
   </si>
   <si>
-    <t>Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. No, we have not.</t>
   </si>
   <si>
@@ -403,9 +376,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Mr. Samuel?</t>
   </si>
   <si>
-    <t>Samuel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Samuel. No, Mr. Chairman, not to my knowledge.</t>
   </si>
   <si>
@@ -457,9 +427,6 @@
     <t>412226</t>
   </si>
   <si>
-    <t>Jim Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan. Mr. Herring, let me just follow up where the chairman was. So did the FBI make the redactions dealing with personal identifiable information?</t>
   </si>
   <si>
@@ -547,9 +514,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. First of all, I want to thank you for your service. And then regrettably, second of all, I need to apologize for the way that you're being treated here today. I know that we've worked with a number of you in the past and appreciate your service to the country. And unlike some folks here, I recognize there's a separation of powers.    While I do agree that Congress has a very wide jurisdiction for investigation, I also know that we are not a law enforcement agency. We are not a trial agency. And under the separation of powers in this country, it's not consistent with the constitution for the legislative branch to overturn a decision, especially on an investigation and a potentially criminal investigation and you've decided not to prosecute. It is completely out of bounds for Congress to overturn a decision of a court on one specific case.    And I want to go back right to the beginning. The notice of this hearing, which was supposed to be closed, and so I apologize that you're being lambasted and denigrated in public when you were asked here to come here to a closed hearing, and all this is happening out of bounds and totally inconsistent with the chairman's letter that this would be a closed hearing.    There is a relevant case law, and, Mr. Herring, I would say that there is constitutional language that would prohibit what's going on here today in requiring you to divulge the names of individuals that have been redacted during your investigation, and that that constitutional language is in the Bill of Rights. And particularly the Fifth Amendment.    And I want to go back to a case called Watkins versus the United States. This was a matter brought forward by Senator Joe McCarthy in the House Committee on Un-American Activities. And Watkins was brought forward to--he was subpoenaed to testify before the House Committee on Un-American Activities. And Chief Justice Warren delivered the opinion of the court in that case. And he said, There's no general authority to expose the private affairs of individuals without justifications in terms of the functions of Congress. Nor is the Congress a law enforcement or trial agency. These are the functions of the executive and judicial departments of government. No inquiry is an end in itself. It must be related to and in furtherance of a legitimate task of Congress. And investigations conducted solely for the personal aggrandizement of the investigators or to punish those investigated are indefensible.    Now, the notice for this hearing says that, number one, the purpose is to review the redactions that were made by the FBI during their investigation and--excuse me--to review the redactions, omissions, and circumstances surrounding your investigation.    Now, as you said before, Mr. Herring, in bringing witnesses forward to get them to cooperate with the FBI--well, look at it this way. If the law is correct the way the chairman and my Republican colleagues are looking at this, here's what we could do. This committee could identify somebody--we could refer somebody for investigation by you, our secret police, the FBI. You could go out and investigate all these people, and then we would have the ability to publicly embarrass them by removing any redactions that you put in place. That's the world that we could create here. And what is the one instance when this exercise, this overreach of power is being administered? It's when we're investigating the Democratic nominee for President a couple of months before the election. That's when this is going on. This is terrible. This is absolutely terrible. This is a miscarriage of justice.    And the right of people against unreasonable search and seizures, the right of the witnesses that you investigate--and I understand this was a 12-month investigation. Earlier in your testimony you said that it took--you did 3 years of work in about 12 months and pulled in all these people. So if anybody at all is mentioned in any of these by a witness who mentions another person, that person will suffer the glare and their lives will be turned upside down because of what this committee wants to do. And that is a violation of our constitution and the individual rights of those individuals, just from having been mentioned or being approached in an FBI investigation.    So, Mr. Chairman, I think this is going in the totally wrong direction. This is a sad day in the history of this committee, I have to tell you. This is a sad goddamn day that we're doing this.</t>
   </si>
   <si>
@@ -559,9 +523,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -643,9 +604,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    First of all, Mr. Chairman, there's an article that appeared today in Newsweek on emails, in Newsweek magazine, and I would ask that the article be entered into the record.</t>
   </si>
   <si>
@@ -718,9 +676,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -838,9 +793,6 @@
     <t xml:space="preserve">    Mr. Herring. I don't know the status. I don't know the status of all----    Chairman Chaffetz. We'll go into that tomorrow. We've gone past our time.    Let's now recognize the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -889,36 +841,24 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. Aye.    The Clerk. Mr. Turner votes yes.    Mr. Duncan?    [No response.]    The Clerk. Mr. Jordan?    [No response.]    The Clerk. Mr. Walberg?</t>
   </si>
   <si>
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Aye.    The Clerk. Mr. Walberg votes yes.    Mr. Amash?</t>
   </si>
   <si>
     <t>412438</t>
   </si>
   <si>
-    <t>Justin Amash</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Amash. Yes.    The Clerk. Mr. Amash votes yes.    Mr. Gosar?</t>
   </si>
   <si>
     <t>412397</t>
   </si>
   <si>
-    <t>Paul A. Gosar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gosar. Yes.    The Clerk. Mr. Gosar votes yes.    Mr. DesJarlais?    [No response.]    The Clerk. Mr. Gowdy?</t>
   </si>
   <si>
@@ -928,27 +868,18 @@
     <t>412482</t>
   </si>
   <si>
-    <t>Blake Farenthold</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Farenthold. Yes.    The Clerk. Mr. Farenthold votes yes.    Mrs. Lummis?</t>
   </si>
   <si>
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. Aye.    The Clerk. Mrs. Lummis votes yes.    Mr. Massie?</t>
   </si>
   <si>
     <t>412503</t>
   </si>
   <si>
-    <t>Thomas Massie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Massie. Yes.    The Clerk. Mr. Massie votes yes.    Mr. Meadows?</t>
   </si>
   <si>
@@ -958,72 +889,48 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Yes.    The Clerk. Mr. DeSantis votes yes.    Mr. Mulvaney?</t>
   </si>
   <si>
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Yes.    The Clerk. Mr. Mulvaney votes yes.    Mr. Buck?    [No response.]    The Clerk. Mr. Walker?    [No response.]    The Clerk. Mr. Blum?</t>
   </si>
   <si>
     <t>412627</t>
   </si>
   <si>
-    <t>Rod Blum</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blum. Yes.    The Clerk. Mr. Blum votes yes.    Mr. Hice?</t>
   </si>
   <si>
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Yes.    The Clerk. Mr. Hice votes yes.    Mr. Russell?</t>
   </si>
   <si>
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Aye.    The Clerk. Mr. Russell votes yes.    Mr. Carter?    [No response.]    The Clerk. Mr. Grothman?</t>
   </si>
   <si>
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Yes.    The Clerk. Mr. Grothman votes yes.    Mr. Hurd?</t>
   </si>
   <si>
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. Yes.    The Clerk. Mr. Hurd votes yes.    Mr. Palmer?</t>
   </si>
   <si>
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Yes.    The Clerk. Mr. Palmer votes yes.    Mr. Cummings?</t>
   </si>
   <si>
@@ -1033,9 +940,6 @@
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Yes.    The Clerk. Mr. Clay votes yes.    Mr. Lynch?</t>
   </si>
   <si>
@@ -1049,9 +953,6 @@
   </si>
   <si>
     <t>412644</t>
-  </si>
-  <si>
-    <t>Bonnie Watson Coleman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Yes.    The Clerk. Mrs. Watson Coleman votes yes.    Ms. Plaskett?    [No response.]    The Clerk. Mr. Desaulnier?    [No response.]    The Clerk. Mr. Boyle?    [No response.]    The Clerk. Mr. Welch?    [No response.]    The Clerk. Ms. Lujan Grisham?    [No response.]</t>
@@ -2173,11 +2074,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2199,11 +2098,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2225,11 +2122,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2251,11 +2146,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2275,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2303,11 +2194,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2327,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2353,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2381,11 +2266,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2405,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2433,11 +2314,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2457,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2485,11 +2362,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2509,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2537,11 +2410,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2561,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2589,11 +2458,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2613,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2641,11 +2506,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2665,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2693,11 +2554,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2717,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2745,11 +2602,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2771,11 +2626,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2795,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2823,11 +2674,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2847,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2875,11 +2722,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2899,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2927,11 +2770,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2953,11 +2794,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2979,11 +2818,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3005,11 +2842,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3029,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3057,11 +2890,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3083,11 +2914,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3109,11 +2938,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3135,11 +2962,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3161,11 +2986,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3187,11 +3010,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3213,11 +3034,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3239,11 +3058,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3265,11 +3082,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3291,11 +3106,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3317,11 +3130,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3343,11 +3154,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3369,11 +3178,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3395,11 +3202,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3421,11 +3226,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3447,11 +3250,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3473,11 +3274,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3497,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3523,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3549,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3575,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3601,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3627,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3653,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3679,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3705,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3731,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3757,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3783,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3809,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3837,11 +3610,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3863,11 +3634,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3887,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3913,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3939,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3965,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3991,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4017,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>84</v>
-      </c>
-      <c r="G73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4043,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>85</v>
-      </c>
-      <c r="H74" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4069,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
-      </c>
-      <c r="G75" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4095,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4121,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
-      </c>
-      <c r="G77" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4147,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4173,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>84</v>
-      </c>
-      <c r="G79" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4199,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4225,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>84</v>
-      </c>
-      <c r="G81" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4251,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G82" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4277,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>84</v>
-      </c>
-      <c r="G83" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4303,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>84</v>
-      </c>
-      <c r="G84" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4329,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>84</v>
-      </c>
-      <c r="G85" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4355,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>84</v>
-      </c>
-      <c r="G86" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4381,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>84</v>
-      </c>
-      <c r="G87" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4407,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
-      </c>
-      <c r="G88" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4433,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>84</v>
-      </c>
-      <c r="G89" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4459,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>84</v>
-      </c>
-      <c r="G90" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4485,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>84</v>
-      </c>
-      <c r="G91" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4511,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>84</v>
-      </c>
-      <c r="G92" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4537,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>84</v>
-      </c>
-      <c r="G93" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4563,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>84</v>
-      </c>
-      <c r="G94" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4589,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>84</v>
-      </c>
-      <c r="G95" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4615,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
-      </c>
-      <c r="G96" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4641,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>84</v>
-      </c>
-      <c r="G97" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4669,11 +4378,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4693,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>117</v>
-      </c>
-      <c r="G99" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4721,11 +4426,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4745,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>117</v>
-      </c>
-      <c r="G101" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4773,11 +4474,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4797,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>117</v>
-      </c>
-      <c r="G103" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4825,11 +4522,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4849,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4877,11 +4570,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4901,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4929,11 +4618,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4953,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" t="s">
-        <v>129</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4981,11 +4666,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5005,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
-      </c>
-      <c r="G111" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5033,11 +4714,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5057,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
-      </c>
-      <c r="G113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
         <v>124</v>
-      </c>
-      <c r="H113" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5085,11 +4762,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5109,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
-      </c>
-      <c r="G115" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5137,11 +4810,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5161,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>117</v>
-      </c>
-      <c r="G117" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5189,11 +4858,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5213,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>117</v>
-      </c>
-      <c r="G119" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5241,11 +4906,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5265,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>117</v>
-      </c>
-      <c r="G121" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5293,11 +4954,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5317,13 +4976,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>117</v>
-      </c>
-      <c r="G123" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5345,11 +5002,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5369,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>146</v>
-      </c>
-      <c r="G125" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5395,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>146</v>
-      </c>
-      <c r="G126" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5421,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>146</v>
-      </c>
-      <c r="G127" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5447,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>146</v>
-      </c>
-      <c r="G128" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5473,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>146</v>
-      </c>
-      <c r="G129" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5499,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
-      </c>
-      <c r="G130" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5525,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>146</v>
-      </c>
-      <c r="G131" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5551,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>146</v>
-      </c>
-      <c r="G132" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5577,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>146</v>
-      </c>
-      <c r="G133" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5603,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
+        <v>136</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
         <v>146</v>
-      </c>
-      <c r="G134" t="s">
-        <v>147</v>
-      </c>
-      <c r="H134" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5629,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
-      </c>
-      <c r="G135" t="s">
+        <v>136</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
         <v>147</v>
-      </c>
-      <c r="H135" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5655,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>146</v>
-      </c>
-      <c r="G136" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5681,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>146</v>
-      </c>
-      <c r="G137" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5707,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>146</v>
-      </c>
-      <c r="G138" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5733,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>146</v>
-      </c>
-      <c r="G139" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5759,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
-      </c>
-      <c r="G140" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5785,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>146</v>
-      </c>
-      <c r="G141" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5811,13 +5432,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>146</v>
-      </c>
-      <c r="G142" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5837,13 +5456,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>146</v>
-      </c>
-      <c r="G143" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5863,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>146</v>
-      </c>
-      <c r="G144" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5889,13 +5504,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G145" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5915,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>146</v>
-      </c>
-      <c r="G146" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5941,13 +5552,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>146</v>
-      </c>
-      <c r="G147" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5969,11 +5578,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5993,13 +5600,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>146</v>
-      </c>
-      <c r="G149" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6021,11 +5626,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6045,13 +5648,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>146</v>
-      </c>
-      <c r="G151" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6073,11 +5674,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6097,13 +5696,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
-      </c>
-      <c r="G153" t="s">
-        <v>177</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6125,11 +5722,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6149,13 +5744,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>180</v>
-      </c>
-      <c r="G155" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6175,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>180</v>
-      </c>
-      <c r="G156" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6201,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>180</v>
-      </c>
-      <c r="G157" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6227,13 +5816,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>180</v>
-      </c>
-      <c r="G158" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6253,13 +5840,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>180</v>
-      </c>
-      <c r="G159" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6279,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>180</v>
-      </c>
-      <c r="G160" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6305,13 +5888,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>180</v>
-      </c>
-      <c r="G161" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6333,11 +5914,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6357,13 +5936,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>180</v>
-      </c>
-      <c r="G163" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6383,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
-      </c>
-      <c r="G164" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6409,13 +5984,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>180</v>
-      </c>
-      <c r="G165" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6435,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>180</v>
-      </c>
-      <c r="G166" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6461,13 +6032,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
+        <v>168</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
         <v>180</v>
-      </c>
-      <c r="G167" t="s">
-        <v>181</v>
-      </c>
-      <c r="H167" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6487,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>180</v>
-      </c>
-      <c r="G168" t="s">
+        <v>168</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
         <v>181</v>
-      </c>
-      <c r="H168" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6513,13 +6080,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
-      </c>
-      <c r="G169" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6539,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>180</v>
-      </c>
-      <c r="G170" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6565,13 +6128,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
-      </c>
-      <c r="G171" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6591,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>180</v>
-      </c>
-      <c r="G172" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6619,11 +6178,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6643,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6671,11 +6226,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6695,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6721,13 +6272,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6747,13 +6296,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6773,13 +6320,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6799,13 +6344,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6827,11 +6370,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6851,13 +6392,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>208</v>
-      </c>
-      <c r="G182" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6879,11 +6418,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6903,13 +6440,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>208</v>
-      </c>
-      <c r="G184" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6929,13 +6464,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>208</v>
-      </c>
-      <c r="G185" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6955,13 +6488,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>208</v>
-      </c>
-      <c r="G186" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6981,13 +6512,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>208</v>
-      </c>
-      <c r="G187" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7007,13 +6536,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>208</v>
-      </c>
-      <c r="G188" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7033,13 +6560,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>208</v>
-      </c>
-      <c r="G189" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7059,13 +6584,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>208</v>
-      </c>
-      <c r="G190" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7085,13 +6608,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>208</v>
-      </c>
-      <c r="G191" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7111,13 +6632,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>208</v>
-      </c>
-      <c r="G192" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7137,13 +6656,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>208</v>
-      </c>
-      <c r="G193" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7163,13 +6680,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>208</v>
-      </c>
-      <c r="G194" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7189,13 +6704,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
+        <v>195</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
         <v>208</v>
-      </c>
-      <c r="G195" t="s">
-        <v>209</v>
-      </c>
-      <c r="H195" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7215,13 +6728,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>208</v>
-      </c>
-      <c r="G196" t="s">
+        <v>195</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
         <v>209</v>
-      </c>
-      <c r="H196" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7241,13 +6752,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>208</v>
-      </c>
-      <c r="G197" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7267,13 +6776,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>208</v>
-      </c>
-      <c r="G198" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7293,13 +6800,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>208</v>
-      </c>
-      <c r="G199" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7321,11 +6826,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7345,13 +6848,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>208</v>
-      </c>
-      <c r="G201" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7371,13 +6872,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>208</v>
-      </c>
-      <c r="G202" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7399,11 +6898,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7423,13 +6920,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>208</v>
-      </c>
-      <c r="G204" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7451,11 +6946,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7475,13 +6968,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>233</v>
-      </c>
-      <c r="G206" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7501,13 +6992,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>233</v>
-      </c>
-      <c r="G207" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7527,13 +7016,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>233</v>
-      </c>
-      <c r="G208" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7553,13 +7040,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>233</v>
-      </c>
-      <c r="G209" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7579,13 +7064,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>233</v>
-      </c>
-      <c r="G210" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7605,13 +7088,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>233</v>
-      </c>
-      <c r="G211" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7631,13 +7112,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>233</v>
-      </c>
-      <c r="G212" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7657,13 +7136,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>233</v>
-      </c>
-      <c r="G213" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7683,13 +7160,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>233</v>
-      </c>
-      <c r="G214" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7709,13 +7184,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>233</v>
-      </c>
-      <c r="G215" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7735,13 +7208,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>233</v>
-      </c>
-      <c r="G216" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7761,13 +7232,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>233</v>
-      </c>
-      <c r="G217" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7787,13 +7256,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>233</v>
-      </c>
-      <c r="G218" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7813,13 +7280,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
+        <v>219</v>
+      </c>
+      <c r="G219" t="s"/>
+      <c r="H219" t="s">
         <v>233</v>
-      </c>
-      <c r="G219" t="s">
-        <v>234</v>
-      </c>
-      <c r="H219" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7839,13 +7304,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>233</v>
-      </c>
-      <c r="G220" t="s">
+        <v>219</v>
+      </c>
+      <c r="G220" t="s"/>
+      <c r="H220" t="s">
         <v>234</v>
-      </c>
-      <c r="H220" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7865,13 +7328,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>233</v>
-      </c>
-      <c r="G221" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7891,13 +7352,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>233</v>
-      </c>
-      <c r="G222" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7917,13 +7376,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>233</v>
-      </c>
-      <c r="G223" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7943,13 +7400,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>233</v>
-      </c>
-      <c r="G224" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7969,13 +7424,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>233</v>
-      </c>
-      <c r="G225" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7995,13 +7448,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>233</v>
-      </c>
-      <c r="G226" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8021,13 +7472,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>233</v>
-      </c>
-      <c r="G227" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8047,13 +7496,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>233</v>
-      </c>
-      <c r="G228" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8073,13 +7520,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>233</v>
-      </c>
-      <c r="G229" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8099,13 +7544,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
-      </c>
-      <c r="G230" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8125,13 +7568,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>233</v>
-      </c>
-      <c r="G231" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8151,13 +7592,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
-      </c>
-      <c r="G232" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8177,13 +7616,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>233</v>
-      </c>
-      <c r="G233" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8203,13 +7640,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
-      </c>
-      <c r="G234" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8229,13 +7664,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>233</v>
-      </c>
-      <c r="G235" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8255,13 +7688,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
-      </c>
-      <c r="G236" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8281,13 +7712,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>233</v>
-      </c>
-      <c r="G237" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8307,13 +7736,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>233</v>
-      </c>
-      <c r="G238" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8333,13 +7760,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>233</v>
-      </c>
-      <c r="G239" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8361,11 +7786,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>12</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8387,11 +7810,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8413,11 +7834,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8439,11 +7858,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8465,11 +7882,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8489,13 +7904,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>34</v>
-      </c>
-      <c r="G245" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8515,13 +7928,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
-      </c>
-      <c r="G246" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8541,13 +7952,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>34</v>
-      </c>
-      <c r="G247" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8567,13 +7976,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
-      </c>
-      <c r="G248" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8593,13 +8000,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
-      </c>
-      <c r="G249" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8619,13 +8024,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
-      </c>
-      <c r="G250" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8645,13 +8048,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
-      </c>
-      <c r="G251" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8671,13 +8072,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
-      </c>
-      <c r="G252" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8697,13 +8096,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>34</v>
-      </c>
-      <c r="G253" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8723,13 +8120,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>34</v>
-      </c>
-      <c r="G254" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8749,13 +8144,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>34</v>
-      </c>
-      <c r="G255" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8775,13 +8168,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
-      </c>
-      <c r="G256" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8803,11 +8194,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8829,11 +8218,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8853,13 +8240,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>180</v>
-      </c>
-      <c r="G259" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8879,13 +8264,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>290</v>
-      </c>
-      <c r="G260" t="s">
-        <v>291</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8905,13 +8288,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>293</v>
-      </c>
-      <c r="G261" t="s">
-        <v>294</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8931,13 +8312,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>296</v>
-      </c>
-      <c r="G262" t="s">
-        <v>297</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8957,13 +8336,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>299</v>
-      </c>
-      <c r="G263" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8983,13 +8360,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>84</v>
-      </c>
-      <c r="G264" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9009,13 +8384,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>303</v>
-      </c>
-      <c r="G265" t="s">
-        <v>304</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9035,13 +8408,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>306</v>
-      </c>
-      <c r="G266" t="s">
-        <v>307</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9061,13 +8432,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>309</v>
-      </c>
-      <c r="G267" t="s">
-        <v>310</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9087,13 +8456,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>233</v>
-      </c>
-      <c r="G268" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9113,13 +8480,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>313</v>
-      </c>
-      <c r="G269" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9139,13 +8504,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>316</v>
-      </c>
-      <c r="G270" t="s">
-        <v>317</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9165,13 +8528,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>319</v>
-      </c>
-      <c r="G271" t="s">
-        <v>320</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9191,13 +8552,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>322</v>
-      </c>
-      <c r="G272" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9217,13 +8576,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>325</v>
-      </c>
-      <c r="G273" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9243,13 +8600,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>328</v>
-      </c>
-      <c r="G274" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9269,13 +8624,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>331</v>
-      </c>
-      <c r="G275" t="s">
-        <v>332</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9295,13 +8648,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>334</v>
-      </c>
-      <c r="G276" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9321,13 +8672,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>17</v>
-      </c>
-      <c r="G277" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9347,13 +8696,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>338</v>
-      </c>
-      <c r="G278" t="s">
-        <v>339</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9373,13 +8720,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>176</v>
-      </c>
-      <c r="G279" t="s">
-        <v>177</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9399,13 +8744,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>208</v>
-      </c>
-      <c r="G280" t="s">
-        <v>209</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9425,13 +8768,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>34</v>
-      </c>
-      <c r="G281" t="s">
-        <v>274</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9451,13 +8792,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>344</v>
-      </c>
-      <c r="G282" t="s">
-        <v>345</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9479,11 +8818,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9505,11 +8842,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9531,11 +8866,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>12</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9555,13 +8888,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>322</v>
-      </c>
-      <c r="G286" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9581,13 +8912,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>322</v>
-      </c>
-      <c r="G287" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9607,13 +8936,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>322</v>
-      </c>
-      <c r="G288" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9633,13 +8960,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>322</v>
-      </c>
-      <c r="G289" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9659,13 +8984,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>322</v>
-      </c>
-      <c r="G290" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9685,13 +9008,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
-      </c>
-      <c r="G291" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9711,13 +9032,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>322</v>
-      </c>
-      <c r="G292" t="s">
+        <v>296</v>
+      </c>
+      <c r="G292" t="s"/>
+      <c r="H292" t="s">
         <v>323</v>
-      </c>
-      <c r="H292" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9737,13 +9056,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>34</v>
-      </c>
-      <c r="G293" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9763,13 +9080,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>322</v>
-      </c>
-      <c r="G294" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9789,13 +9104,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>34</v>
-      </c>
-      <c r="G295" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9815,13 +9128,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>322</v>
-      </c>
-      <c r="G296" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9841,13 +9152,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>34</v>
-      </c>
-      <c r="G297" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9867,13 +9176,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>322</v>
-      </c>
-      <c r="G298" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9893,13 +9200,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>34</v>
-      </c>
-      <c r="G299" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9919,13 +9224,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>322</v>
-      </c>
-      <c r="G300" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9945,13 +9248,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>34</v>
-      </c>
-      <c r="G301" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9971,13 +9272,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>322</v>
-      </c>
-      <c r="G302" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9997,13 +9296,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>34</v>
-      </c>
-      <c r="G303" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10023,13 +9320,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>322</v>
-      </c>
-      <c r="G304" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10049,13 +9344,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>34</v>
-      </c>
-      <c r="G305" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10075,13 +9368,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>322</v>
-      </c>
-      <c r="G306" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10101,13 +9392,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>34</v>
-      </c>
-      <c r="G307" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10127,13 +9416,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>322</v>
-      </c>
-      <c r="G308" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10153,13 +9440,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>34</v>
-      </c>
-      <c r="G309" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10179,13 +9464,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>322</v>
-      </c>
-      <c r="G310" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10205,13 +9488,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>34</v>
-      </c>
-      <c r="G311" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10231,13 +9512,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>322</v>
-      </c>
-      <c r="G312" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10257,13 +9536,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>34</v>
-      </c>
-      <c r="G313" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10283,13 +9560,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>322</v>
-      </c>
-      <c r="G314" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10309,13 +9584,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>322</v>
-      </c>
-      <c r="G315" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10335,13 +9608,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>322</v>
-      </c>
-      <c r="G316" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10361,13 +9632,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>322</v>
-      </c>
-      <c r="G317" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10387,13 +9656,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>322</v>
-      </c>
-      <c r="G318" t="s">
-        <v>323</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10415,11 +9682,9 @@
       <c r="F319" t="s">
         <v>11</v>
       </c>
-      <c r="G319" t="s">
-        <v>12</v>
-      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10439,13 +9704,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>313</v>
-      </c>
-      <c r="G320" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10465,13 +9728,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>313</v>
-      </c>
-      <c r="G321" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10491,13 +9752,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>313</v>
-      </c>
-      <c r="G322" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10517,13 +9776,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>34</v>
-      </c>
-      <c r="G323" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10543,13 +9800,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>313</v>
-      </c>
-      <c r="G324" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10569,13 +9824,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>34</v>
-      </c>
-      <c r="G325" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10595,13 +9848,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>313</v>
-      </c>
-      <c r="G326" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10621,13 +9872,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>34</v>
-      </c>
-      <c r="G327" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10647,13 +9896,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>313</v>
-      </c>
-      <c r="G328" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10673,13 +9920,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>34</v>
-      </c>
-      <c r="G329" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10699,13 +9944,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>313</v>
-      </c>
-      <c r="G330" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10725,13 +9968,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>34</v>
-      </c>
-      <c r="G331" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10751,13 +9992,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>313</v>
-      </c>
-      <c r="G332" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10777,13 +10016,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>34</v>
-      </c>
-      <c r="G333" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10803,13 +10040,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>313</v>
-      </c>
-      <c r="G334" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10829,13 +10064,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>34</v>
-      </c>
-      <c r="G335" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10855,13 +10088,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>313</v>
-      </c>
-      <c r="G336" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10881,13 +10112,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>34</v>
-      </c>
-      <c r="G337" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10907,13 +10136,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>313</v>
-      </c>
-      <c r="G338" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10933,13 +10160,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>34</v>
-      </c>
-      <c r="G339" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10959,13 +10184,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>313</v>
-      </c>
-      <c r="G340" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10985,13 +10208,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>34</v>
-      </c>
-      <c r="G341" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11011,13 +10232,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>313</v>
-      </c>
-      <c r="G342" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11037,13 +10256,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>34</v>
-      </c>
-      <c r="G343" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11063,13 +10280,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>313</v>
-      </c>
-      <c r="G344" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11089,13 +10304,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>34</v>
-      </c>
-      <c r="G345" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11115,13 +10328,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>313</v>
-      </c>
-      <c r="G346" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11141,13 +10352,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>34</v>
-      </c>
-      <c r="G347" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11167,13 +10376,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>313</v>
-      </c>
-      <c r="G348" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11193,13 +10400,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>34</v>
-      </c>
-      <c r="G349" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11219,13 +10424,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>313</v>
-      </c>
-      <c r="G350" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11245,13 +10448,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>34</v>
-      </c>
-      <c r="G351" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11271,13 +10472,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>313</v>
-      </c>
-      <c r="G352" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11297,13 +10496,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>34</v>
-      </c>
-      <c r="G353" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11323,13 +10520,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>313</v>
-      </c>
-      <c r="G354" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11349,13 +10544,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>34</v>
-      </c>
-      <c r="G355" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11375,13 +10568,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>313</v>
-      </c>
-      <c r="G356" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11401,13 +10592,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>34</v>
-      </c>
-      <c r="G357" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11427,13 +10616,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>313</v>
-      </c>
-      <c r="G358" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11453,13 +10640,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>34</v>
-      </c>
-      <c r="G359" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11479,13 +10664,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>313</v>
-      </c>
-      <c r="G360" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11505,13 +10688,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>34</v>
-      </c>
-      <c r="G361" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11531,13 +10712,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>313</v>
-      </c>
-      <c r="G362" t="s">
-        <v>314</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11559,11 +10738,9 @@
       <c r="F363" t="s">
         <v>11</v>
       </c>
-      <c r="G363" t="s">
-        <v>12</v>
-      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11583,13 +10760,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>325</v>
-      </c>
-      <c r="G364" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11609,13 +10784,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>325</v>
-      </c>
-      <c r="G365" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11635,13 +10808,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>325</v>
-      </c>
-      <c r="G366" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11661,13 +10832,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>325</v>
-      </c>
-      <c r="G367" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11687,13 +10856,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>325</v>
-      </c>
-      <c r="G368" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11713,13 +10880,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>34</v>
-      </c>
-      <c r="G369" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11739,13 +10904,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>325</v>
-      </c>
-      <c r="G370" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11765,13 +10928,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>34</v>
-      </c>
-      <c r="G371" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11791,13 +10952,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>325</v>
-      </c>
-      <c r="G372" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11817,13 +10976,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>34</v>
-      </c>
-      <c r="G373" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11843,13 +11000,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>325</v>
-      </c>
-      <c r="G374" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11869,13 +11024,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>34</v>
-      </c>
-      <c r="G375" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11895,13 +11048,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>325</v>
-      </c>
-      <c r="G376" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11921,13 +11072,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>34</v>
-      </c>
-      <c r="G377" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11947,13 +11096,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>325</v>
-      </c>
-      <c r="G378" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11973,13 +11120,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>34</v>
-      </c>
-      <c r="G379" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11999,13 +11144,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>325</v>
-      </c>
-      <c r="G380" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12025,13 +11168,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>325</v>
-      </c>
-      <c r="G381" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12051,13 +11192,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>325</v>
-      </c>
-      <c r="G382" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12077,13 +11216,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>325</v>
-      </c>
-      <c r="G383" t="s">
-        <v>326</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12105,11 +11242,9 @@
       <c r="F384" t="s">
         <v>11</v>
       </c>
-      <c r="G384" t="s">
-        <v>12</v>
-      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12129,13 +11264,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>334</v>
-      </c>
-      <c r="G385" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12155,13 +11288,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>334</v>
-      </c>
-      <c r="G386" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12181,13 +11312,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>334</v>
-      </c>
-      <c r="G387" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12207,13 +11336,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>334</v>
-      </c>
-      <c r="G388" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12233,13 +11360,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>334</v>
-      </c>
-      <c r="G389" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12259,13 +11384,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>334</v>
-      </c>
-      <c r="G390" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12285,13 +11408,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>334</v>
-      </c>
-      <c r="G391" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12311,13 +11432,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>34</v>
-      </c>
-      <c r="G392" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12337,13 +11456,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>334</v>
-      </c>
-      <c r="G393" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12363,13 +11480,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>34</v>
-      </c>
-      <c r="G394" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12389,13 +11504,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>334</v>
-      </c>
-      <c r="G395" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12415,13 +11528,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
-      </c>
-      <c r="G396" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12441,13 +11552,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>334</v>
-      </c>
-      <c r="G397" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12467,13 +11576,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>34</v>
-      </c>
-      <c r="G398" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12493,13 +11600,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>334</v>
-      </c>
-      <c r="G399" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12519,13 +11624,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>34</v>
-      </c>
-      <c r="G400" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12545,13 +11648,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>334</v>
-      </c>
-      <c r="G401" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12571,13 +11672,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>34</v>
-      </c>
-      <c r="G402" t="s">
-        <v>129</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12597,13 +11696,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>334</v>
-      </c>
-      <c r="G403" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12623,13 +11720,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>34</v>
-      </c>
-      <c r="G404" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12651,11 +11746,9 @@
       <c r="F405" t="s">
         <v>11</v>
       </c>
-      <c r="G405" t="s">
-        <v>12</v>
-      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12675,13 +11768,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>334</v>
-      </c>
-      <c r="G406" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12701,13 +11792,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>34</v>
-      </c>
-      <c r="G407" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12727,13 +11816,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>334</v>
-      </c>
-      <c r="G408" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12753,13 +11840,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>334</v>
-      </c>
-      <c r="G409" t="s">
-        <v>335</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12781,11 +11866,9 @@
       <c r="F410" t="s">
         <v>11</v>
       </c>
-      <c r="G410" t="s">
-        <v>12</v>
-      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12805,13 +11888,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>306</v>
-      </c>
-      <c r="G411" t="s">
-        <v>307</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12831,13 +11912,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>306</v>
-      </c>
-      <c r="G412" t="s">
-        <v>307</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12857,13 +11936,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>306</v>
-      </c>
-      <c r="G413" t="s">
-        <v>307</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12883,13 +11960,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>306</v>
-      </c>
-      <c r="G414" t="s">
-        <v>307</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12909,13 +11984,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>306</v>
-      </c>
-      <c r="G415" t="s">
-        <v>307</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12935,13 +12008,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>306</v>
-      </c>
-      <c r="G416" t="s">
-        <v>307</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12961,13 +12032,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>306</v>
-      </c>
-      <c r="G417" t="s">
-        <v>307</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12989,11 +12058,9 @@
       <c r="F418" t="s">
         <v>11</v>
       </c>
-      <c r="G418" t="s">
-        <v>12</v>
-      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13015,11 +12082,9 @@
       <c r="F419" t="s">
         <v>11</v>
       </c>
-      <c r="G419" t="s">
-        <v>12</v>
-      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13039,13 +12104,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>34</v>
-      </c>
-      <c r="G420" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13067,11 +12130,9 @@
       <c r="F421" t="s">
         <v>11</v>
       </c>
-      <c r="G421" t="s">
-        <v>12</v>
-      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13091,13 +12152,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>34</v>
-      </c>
-      <c r="G422" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13119,11 +12178,9 @@
       <c r="F423" t="s">
         <v>11</v>
       </c>
-      <c r="G423" t="s">
-        <v>12</v>
-      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13143,13 +12200,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>34</v>
-      </c>
-      <c r="G424" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13171,11 +12226,9 @@
       <c r="F425" t="s">
         <v>11</v>
       </c>
-      <c r="G425" t="s">
-        <v>12</v>
-      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13195,13 +12248,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>34</v>
-      </c>
-      <c r="G426" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13223,11 +12274,9 @@
       <c r="F427" t="s">
         <v>11</v>
       </c>
-      <c r="G427" t="s">
-        <v>12</v>
-      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13247,13 +12296,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>34</v>
-      </c>
-      <c r="G428" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13275,11 +12322,9 @@
       <c r="F429" t="s">
         <v>11</v>
       </c>
-      <c r="G429" t="s">
-        <v>12</v>
-      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13299,13 +12344,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>34</v>
-      </c>
-      <c r="G430" t="s">
-        <v>129</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13327,11 +12370,9 @@
       <c r="F431" t="s">
         <v>11</v>
       </c>
-      <c r="G431" t="s">
-        <v>12</v>
-      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13351,13 +12392,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>34</v>
-      </c>
-      <c r="G432" t="s">
-        <v>129</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13379,11 +12418,9 @@
       <c r="F433" t="s">
         <v>11</v>
       </c>
-      <c r="G433" t="s">
-        <v>12</v>
-      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13403,13 +12440,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>34</v>
-      </c>
-      <c r="G434" t="s">
-        <v>129</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13431,11 +12466,9 @@
       <c r="F435" t="s">
         <v>11</v>
       </c>
-      <c r="G435" t="s">
-        <v>12</v>
-      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13455,13 +12488,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>34</v>
-      </c>
-      <c r="G436" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13483,11 +12514,9 @@
       <c r="F437" t="s">
         <v>11</v>
       </c>
-      <c r="G437" t="s">
-        <v>12</v>
-      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13507,13 +12536,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>34</v>
-      </c>
-      <c r="G438" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13535,11 +12562,9 @@
       <c r="F439" t="s">
         <v>11</v>
       </c>
-      <c r="G439" t="s">
-        <v>12</v>
-      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13559,13 +12584,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>34</v>
-      </c>
-      <c r="G440" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13587,11 +12610,9 @@
       <c r="F441" t="s">
         <v>11</v>
       </c>
-      <c r="G441" t="s">
-        <v>12</v>
-      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13611,13 +12632,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>34</v>
-      </c>
-      <c r="G442" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13639,11 +12658,9 @@
       <c r="F443" t="s">
         <v>11</v>
       </c>
-      <c r="G443" t="s">
-        <v>12</v>
-      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13663,13 +12680,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>299</v>
-      </c>
-      <c r="G444" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13689,13 +12704,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>34</v>
-      </c>
-      <c r="G445" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13715,13 +12728,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>299</v>
-      </c>
-      <c r="G446" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13741,13 +12752,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>34</v>
-      </c>
-      <c r="G447" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13767,13 +12776,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>299</v>
-      </c>
-      <c r="G448" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13793,13 +12800,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>34</v>
-      </c>
-      <c r="G449" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13819,13 +12824,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>299</v>
-      </c>
-      <c r="G450" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13845,13 +12848,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>34</v>
-      </c>
-      <c r="G451" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13871,13 +12872,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>299</v>
-      </c>
-      <c r="G452" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13897,13 +12896,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>34</v>
-      </c>
-      <c r="G453" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13923,13 +12920,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>299</v>
-      </c>
-      <c r="G454" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13949,13 +12944,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>34</v>
-      </c>
-      <c r="G455" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13975,13 +12968,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>299</v>
-      </c>
-      <c r="G456" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14001,13 +12992,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>34</v>
-      </c>
-      <c r="G457" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14027,13 +13016,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>299</v>
-      </c>
-      <c r="G458" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14053,13 +13040,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>34</v>
-      </c>
-      <c r="G459" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14079,13 +13064,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>299</v>
-      </c>
-      <c r="G460" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14105,13 +13088,11 @@
         <v>10</v>
       </c>
       <c r="F461" t="s">
-        <v>34</v>
-      </c>
-      <c r="G461" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14131,13 +13112,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>299</v>
-      </c>
-      <c r="G462" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14157,13 +13136,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>34</v>
-      </c>
-      <c r="G463" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14183,13 +13160,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>299</v>
-      </c>
-      <c r="G464" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14209,13 +13184,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>34</v>
-      </c>
-      <c r="G465" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14235,13 +13208,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>299</v>
-      </c>
-      <c r="G466" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14261,13 +13232,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>34</v>
-      </c>
-      <c r="G467" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14287,13 +13256,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>299</v>
-      </c>
-      <c r="G468" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14313,13 +13280,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>34</v>
-      </c>
-      <c r="G469" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14339,13 +13304,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>299</v>
-      </c>
-      <c r="G470" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14365,13 +13328,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>34</v>
-      </c>
-      <c r="G471" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14391,13 +13352,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>299</v>
-      </c>
-      <c r="G472" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14417,13 +13376,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>34</v>
-      </c>
-      <c r="G473" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14443,13 +13400,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>299</v>
-      </c>
-      <c r="G474" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14469,13 +13424,11 @@
         <v>10</v>
       </c>
       <c r="F475" t="s">
-        <v>34</v>
-      </c>
-      <c r="G475" t="s">
-        <v>124</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14495,13 +13448,11 @@
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>299</v>
-      </c>
-      <c r="G476" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14521,13 +13472,11 @@
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>34</v>
-      </c>
-      <c r="G477" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14547,13 +13496,11 @@
         <v>10</v>
       </c>
       <c r="F478" t="s">
-        <v>299</v>
-      </c>
-      <c r="G478" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14573,13 +13520,11 @@
         <v>10</v>
       </c>
       <c r="F479" t="s">
-        <v>34</v>
-      </c>
-      <c r="G479" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14599,13 +13544,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>299</v>
-      </c>
-      <c r="G480" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14625,13 +13568,11 @@
         <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>34</v>
-      </c>
-      <c r="G481" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14651,13 +13592,11 @@
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>299</v>
-      </c>
-      <c r="G482" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14677,13 +13616,11 @@
         <v>10</v>
       </c>
       <c r="F483" t="s">
-        <v>34</v>
-      </c>
-      <c r="G483" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14703,13 +13640,11 @@
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>299</v>
-      </c>
-      <c r="G484" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14729,13 +13664,11 @@
         <v>10</v>
       </c>
       <c r="F485" t="s">
-        <v>34</v>
-      </c>
-      <c r="G485" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14755,13 +13688,11 @@
         <v>10</v>
       </c>
       <c r="F486" t="s">
-        <v>299</v>
-      </c>
-      <c r="G486" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14781,13 +13712,11 @@
         <v>10</v>
       </c>
       <c r="F487" t="s">
-        <v>34</v>
-      </c>
-      <c r="G487" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14807,13 +13736,11 @@
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>299</v>
-      </c>
-      <c r="G488" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14833,13 +13760,11 @@
         <v>10</v>
       </c>
       <c r="F489" t="s">
-        <v>34</v>
-      </c>
-      <c r="G489" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14859,13 +13784,11 @@
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>299</v>
-      </c>
-      <c r="G490" t="s">
-        <v>300</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14887,11 +13810,9 @@
       <c r="F491" t="s">
         <v>11</v>
       </c>
-      <c r="G491" t="s">
-        <v>12</v>
-      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14911,13 +13832,11 @@
         <v>10</v>
       </c>
       <c r="F492" t="s">
-        <v>328</v>
-      </c>
-      <c r="G492" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G492" t="s"/>
       <c r="H492" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14937,13 +13856,11 @@
         <v>10</v>
       </c>
       <c r="F493" t="s">
-        <v>34</v>
-      </c>
-      <c r="G493" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G493" t="s"/>
       <c r="H493" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14963,13 +13880,11 @@
         <v>10</v>
       </c>
       <c r="F494" t="s">
-        <v>328</v>
-      </c>
-      <c r="G494" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G494" t="s"/>
       <c r="H494" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14989,13 +13904,11 @@
         <v>10</v>
       </c>
       <c r="F495" t="s">
-        <v>34</v>
-      </c>
-      <c r="G495" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G495" t="s"/>
       <c r="H495" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15015,13 +13928,11 @@
         <v>10</v>
       </c>
       <c r="F496" t="s">
-        <v>328</v>
-      </c>
-      <c r="G496" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G496" t="s"/>
       <c r="H496" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15041,13 +13952,11 @@
         <v>10</v>
       </c>
       <c r="F497" t="s">
-        <v>34</v>
-      </c>
-      <c r="G497" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G497" t="s"/>
       <c r="H497" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15067,13 +13976,11 @@
         <v>10</v>
       </c>
       <c r="F498" t="s">
-        <v>328</v>
-      </c>
-      <c r="G498" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G498" t="s"/>
       <c r="H498" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15093,13 +14000,11 @@
         <v>10</v>
       </c>
       <c r="F499" t="s">
-        <v>34</v>
-      </c>
-      <c r="G499" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G499" t="s"/>
       <c r="H499" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15119,13 +14024,11 @@
         <v>10</v>
       </c>
       <c r="F500" t="s">
-        <v>328</v>
-      </c>
-      <c r="G500" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G500" t="s"/>
       <c r="H500" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15145,13 +14048,11 @@
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>34</v>
-      </c>
-      <c r="G501" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G501" t="s"/>
       <c r="H501" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15171,13 +14072,11 @@
         <v>10</v>
       </c>
       <c r="F502" t="s">
-        <v>328</v>
-      </c>
-      <c r="G502" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G502" t="s"/>
       <c r="H502" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15199,11 +14098,9 @@
       <c r="F503" t="s">
         <v>11</v>
       </c>
-      <c r="G503" t="s">
-        <v>12</v>
-      </c>
+      <c r="G503" t="s"/>
       <c r="H503" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15223,13 +14120,11 @@
         <v>10</v>
       </c>
       <c r="F504" t="s">
-        <v>328</v>
-      </c>
-      <c r="G504" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G504" t="s"/>
       <c r="H504" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15251,11 +14146,9 @@
       <c r="F505" t="s">
         <v>11</v>
       </c>
-      <c r="G505" t="s">
-        <v>12</v>
-      </c>
+      <c r="G505" t="s"/>
       <c r="H505" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15275,13 +14168,11 @@
         <v>10</v>
       </c>
       <c r="F506" t="s">
-        <v>34</v>
-      </c>
-      <c r="G506" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G506" t="s"/>
       <c r="H506" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15303,11 +14194,9 @@
       <c r="F507" t="s">
         <v>11</v>
       </c>
-      <c r="G507" t="s">
-        <v>12</v>
-      </c>
+      <c r="G507" t="s"/>
       <c r="H507" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15327,13 +14216,11 @@
         <v>10</v>
       </c>
       <c r="F508" t="s">
-        <v>328</v>
-      </c>
-      <c r="G508" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G508" t="s"/>
       <c r="H508" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15353,13 +14240,11 @@
         <v>10</v>
       </c>
       <c r="F509" t="s">
-        <v>34</v>
-      </c>
-      <c r="G509" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G509" t="s"/>
       <c r="H509" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15381,11 +14266,9 @@
       <c r="F510" t="s">
         <v>11</v>
       </c>
-      <c r="G510" t="s">
-        <v>12</v>
-      </c>
+      <c r="G510" t="s"/>
       <c r="H510" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15405,13 +14288,11 @@
         <v>10</v>
       </c>
       <c r="F511" t="s">
-        <v>328</v>
-      </c>
-      <c r="G511" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G511" t="s"/>
       <c r="H511" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15431,13 +14312,11 @@
         <v>10</v>
       </c>
       <c r="F512" t="s">
-        <v>34</v>
-      </c>
-      <c r="G512" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G512" t="s"/>
       <c r="H512" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15457,13 +14336,11 @@
         <v>10</v>
       </c>
       <c r="F513" t="s">
-        <v>328</v>
-      </c>
-      <c r="G513" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G513" t="s"/>
       <c r="H513" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15483,13 +14360,11 @@
         <v>10</v>
       </c>
       <c r="F514" t="s">
-        <v>34</v>
-      </c>
-      <c r="G514" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G514" t="s"/>
       <c r="H514" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15509,13 +14384,11 @@
         <v>10</v>
       </c>
       <c r="F515" t="s">
-        <v>328</v>
-      </c>
-      <c r="G515" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G515" t="s"/>
       <c r="H515" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15535,13 +14408,11 @@
         <v>10</v>
       </c>
       <c r="F516" t="s">
-        <v>34</v>
-      </c>
-      <c r="G516" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G516" t="s"/>
       <c r="H516" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15561,13 +14432,11 @@
         <v>10</v>
       </c>
       <c r="F517" t="s">
-        <v>328</v>
-      </c>
-      <c r="G517" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G517" t="s"/>
       <c r="H517" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15587,13 +14456,11 @@
         <v>10</v>
       </c>
       <c r="F518" t="s">
-        <v>34</v>
-      </c>
-      <c r="G518" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G518" t="s"/>
       <c r="H518" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15613,13 +14480,11 @@
         <v>10</v>
       </c>
       <c r="F519" t="s">
-        <v>328</v>
-      </c>
-      <c r="G519" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G519" t="s"/>
       <c r="H519" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15639,13 +14504,11 @@
         <v>10</v>
       </c>
       <c r="F520" t="s">
-        <v>34</v>
-      </c>
-      <c r="G520" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G520" t="s"/>
       <c r="H520" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15665,13 +14528,11 @@
         <v>10</v>
       </c>
       <c r="F521" t="s">
-        <v>328</v>
-      </c>
-      <c r="G521" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G521" t="s"/>
       <c r="H521" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15691,13 +14552,11 @@
         <v>10</v>
       </c>
       <c r="F522" t="s">
-        <v>34</v>
-      </c>
-      <c r="G522" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G522" t="s"/>
       <c r="H522" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15717,13 +14576,11 @@
         <v>10</v>
       </c>
       <c r="F523" t="s">
-        <v>328</v>
-      </c>
-      <c r="G523" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G523" t="s"/>
       <c r="H523" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15743,13 +14600,11 @@
         <v>10</v>
       </c>
       <c r="F524" t="s">
-        <v>34</v>
-      </c>
-      <c r="G524" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G524" t="s"/>
       <c r="H524" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15769,13 +14624,11 @@
         <v>10</v>
       </c>
       <c r="F525" t="s">
-        <v>328</v>
-      </c>
-      <c r="G525" t="s">
-        <v>329</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G525" t="s"/>
       <c r="H525" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
